--- a/employeList.xlsx
+++ b/employeList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarke\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A6B0B4-E1C6-4EEA-9C62-2AF437306D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BC09D5-6A10-4718-964F-6F1CEA3F5812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FBD00750-91CE-4D4B-9AE4-F04D331E0A64}"/>
   </bookViews>
@@ -25,58 +25,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>Employee ID</t>
   </si>
   <si>
     <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Aarav Sharma</t>
+  </si>
+  <si>
+    <t>Aditi Singh</t>
+  </si>
+  <si>
+    <t>Akshay Patel</t>
+  </si>
+  <si>
+    <t>Alisha Gupta</t>
+  </si>
+  <si>
+    <t>Amit Kumar</t>
+  </si>
+  <si>
+    <t>Ananya Dubey</t>
+  </si>
+  <si>
+    <t>Anika Choudhary</t>
+  </si>
+  <si>
+    <t>Arjun Tiwari</t>
+  </si>
+  <si>
+    <t>Aryan Yadav</t>
+  </si>
+  <si>
+    <t>Avani Verma</t>
+  </si>
+  <si>
+    <t>Bhavya Reddy</t>
+  </si>
+  <si>
+    <t>Devansh Mishra</t>
+  </si>
+  <si>
+    <t>Diya Bansal</t>
+  </si>
+  <si>
+    <t>Eshaan Joshi</t>
+  </si>
+  <si>
+    <t>Gayathri Suresh</t>
+  </si>
+  <si>
+    <t>Ishaan Kapoor</t>
+  </si>
+  <si>
+    <t>Jiya Khanna</t>
+  </si>
+  <si>
+    <t>Kabir Saxena</t>
+  </si>
+  <si>
+    <t>Kavya Sharma</t>
+  </si>
+  <si>
+    <t>Lakshya Verma</t>
+  </si>
+  <si>
+    <t>Mahira Khan</t>
+  </si>
+  <si>
+    <t>Manvi Gupta</t>
+  </si>
+  <si>
+    <t>Nakul Agarwal</t>
+  </si>
+  <si>
+    <t>Navya Patel</t>
+  </si>
+  <si>
+    <t>Neha Yadav</t>
+  </si>
+  <si>
+    <t>Nirav Desai</t>
+  </si>
+  <si>
+    <t>Prisha Shah</t>
+  </si>
+  <si>
+    <t>Raghav Gupta</t>
+  </si>
+  <si>
+    <t>Rehan Singh</t>
+  </si>
+  <si>
+    <t>Riya Jain</t>
+  </si>
+  <si>
+    <t>Rudra Tiwari</t>
+  </si>
+  <si>
+    <t>Saanvi Sharma</t>
+  </si>
+  <si>
+    <t>Shaurya Choudhary</t>
+  </si>
+  <si>
+    <t>Shreya Singh</t>
+  </si>
+  <si>
+    <t>Siddharth Kumar</t>
+  </si>
+  <si>
+    <t>Simran Verma</t>
+  </si>
+  <si>
+    <t>Soham Das</t>
+  </si>
+  <si>
+    <t>Sonakshi Reddy</t>
+  </si>
+  <si>
+    <t>Sparsh Agarwal</t>
+  </si>
+  <si>
+    <t>Subhan Khan</t>
+  </si>
+  <si>
+    <t>Suhana Gupta</t>
+  </si>
+  <si>
+    <t>Tanishq Joshi</t>
+  </si>
+  <si>
+    <t>Tanya Singh</t>
+  </si>
+  <si>
+    <t>Trisha Sharma</t>
+  </si>
+  <si>
+    <t>Uday Mehta</t>
+  </si>
+  <si>
+    <t>Vanshika Patel</t>
+  </si>
+  <si>
+    <t>Vedant Sharma</t>
+  </si>
+  <si>
+    <t>Vihaan Yadav</t>
+  </si>
+  <si>
+    <t>Yash Dubey</t>
+  </si>
+  <si>
+    <t>Zara Kapoor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,16 +195,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FFD1D5DB"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FFD1D5DB"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF444654"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -101,12 +230,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD9D9E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CEB553-F1D5-43F6-B1CD-9B186A8429F8}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,119 +626,816 @@
     <col min="2" max="2" width="47.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+    </row>
+    <row r="53" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+    </row>
+    <row r="54" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+    </row>
+    <row r="55" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+    </row>
+    <row r="56" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+    </row>
+    <row r="57" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
+    </row>
+    <row r="58" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
+    </row>
+    <row r="59" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+    </row>
+    <row r="60" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
+    </row>
+    <row r="61" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
+    </row>
+    <row r="62" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+    </row>
+    <row r="63" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
+    </row>
+    <row r="64" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>